--- a/Data/EC/NIT-9007424216.xlsx
+++ b/Data/EC/NIT-9007424216.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0B6E17E-FA1F-482F-A554-69462F8E99ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AA7CD9-5B6D-49E6-911E-B2499B10FAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EC37E269-098C-4448-9FB3-ABF751C91DAE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56344CCB-639E-49BB-B2E0-5C29BC7D1A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,34 +65,163 @@
     <t>CC</t>
   </si>
   <si>
+    <t>9040795</t>
+  </si>
+  <si>
+    <t>HECTOR VALDEZ JULIO</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>73581133</t>
+  </si>
+  <si>
+    <t>MAXIMO CALDERA CORREA</t>
+  </si>
+  <si>
+    <t>73208277</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL BARON RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>11172932</t>
+  </si>
+  <si>
+    <t>LIBARDO JOSE LAGARES ARRIETA</t>
+  </si>
+  <si>
+    <t>9159495</t>
+  </si>
+  <si>
+    <t>OBANIS BANQUEZ MORALES</t>
+  </si>
+  <si>
+    <t>73103185</t>
+  </si>
+  <si>
+    <t>ALBERTO LOPEZ TOVAR</t>
+  </si>
+  <si>
+    <t>9102828</t>
+  </si>
+  <si>
+    <t>JONNY ACEVEDO FUENTES</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>32938312</t>
+  </si>
+  <si>
+    <t>DINA ESTELLA PASTRANA OQUENDO</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>73126026</t>
+  </si>
+  <si>
+    <t>PEDRO MANUEL HERRERA DIAZ</t>
+  </si>
+  <si>
+    <t>1007255219</t>
+  </si>
+  <si>
+    <t>WIL PEREZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1101454290</t>
+  </si>
+  <si>
+    <t>VICTOR LUIS BATISTA ALVAREZ</t>
+  </si>
+  <si>
+    <t>1002324227</t>
+  </si>
+  <si>
+    <t>KEIVIN JOSE REYES MARIMON</t>
+  </si>
+  <si>
+    <t>19955354</t>
+  </si>
+  <si>
+    <t>DEYBIS CARO URBINA</t>
+  </si>
+  <si>
+    <t>91222203</t>
+  </si>
+  <si>
+    <t>DAVID GONZALEZ MEDRANO</t>
+  </si>
+  <si>
+    <t>1143380015</t>
+  </si>
+  <si>
+    <t>YOEL DAVID THERAN MARIMON</t>
+  </si>
+  <si>
+    <t>1101448419</t>
+  </si>
+  <si>
+    <t>LUIS GUILLERMO CASTRO SANCHEZ</t>
+  </si>
+  <si>
+    <t>73539834</t>
+  </si>
+  <si>
+    <t>UMBERTO SANJUAN MERCADO</t>
+  </si>
+  <si>
+    <t>8834909</t>
+  </si>
+  <si>
+    <t>LUIS ADOLFO VASQUEZ GARCIA</t>
+  </si>
+  <si>
     <t>1049533525</t>
   </si>
   <si>
     <t>JEYSON DE ARCO CARVAJALINO</t>
   </si>
   <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>32938312</t>
-  </si>
-  <si>
-    <t>DINA ESTELLA PASTRANA OQUENDO</t>
-  </si>
-  <si>
-    <t>9102828</t>
-  </si>
-  <si>
-    <t>JONNY ACEVEDO FUENTES</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1007255219</t>
-  </si>
-  <si>
-    <t>WIL PEREZ RODRIGUEZ</t>
+    <t>1002241077</t>
+  </si>
+  <si>
+    <t>FREDIS JOSE MARTINEZ SALABARRIA</t>
+  </si>
+  <si>
+    <t>73207439</t>
+  </si>
+  <si>
+    <t>ARMANDO PARDO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1127652780</t>
+  </si>
+  <si>
+    <t>ROMER DE JESUS SUAREZ PABA</t>
+  </si>
+  <si>
+    <t>1047441462</t>
+  </si>
+  <si>
+    <t>LUIS ALFONSO ALBIS LUNA</t>
   </si>
   <si>
     <t>1047371347</t>
@@ -101,157 +230,28 @@
     <t>JHAN CARLOS BENAVIDES CORTES</t>
   </si>
   <si>
-    <t>73126026</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL HERRERA DIAZ</t>
-  </si>
-  <si>
-    <t>19955354</t>
-  </si>
-  <si>
-    <t>DEYBIS CARO URBINA</t>
-  </si>
-  <si>
-    <t>73539834</t>
-  </si>
-  <si>
-    <t>UMBERTO SANJUAN MERCADO</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>91222203</t>
-  </si>
-  <si>
-    <t>DAVID GONZALEZ MEDRANO</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
+    <t>1047365504</t>
+  </si>
+  <si>
+    <t>JHON JEREMBER JULIO SANCHEZ</t>
+  </si>
+  <si>
+    <t>1148440010</t>
+  </si>
+  <si>
+    <t>JHON JAIRO GOMEZ BERRIO</t>
+  </si>
+  <si>
+    <t>1048608918</t>
+  </si>
+  <si>
+    <t>WILLIAM ELIECER JARAMILLO RAMIREZ</t>
   </si>
   <si>
     <t>1047480992</t>
   </si>
   <si>
     <t>JULIO CESAR ARRIETA ROCHA</t>
-  </si>
-  <si>
-    <t>1002241077</t>
-  </si>
-  <si>
-    <t>FREDIS JOSE MARTINEZ SALABARRIA</t>
-  </si>
-  <si>
-    <t>1127652780</t>
-  </si>
-  <si>
-    <t>ROMER DE JESUS SUAREZ PABA</t>
-  </si>
-  <si>
-    <t>11172932</t>
-  </si>
-  <si>
-    <t>LIBARDO JOSE LAGARES ARRIETA</t>
-  </si>
-  <si>
-    <t>73208277</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL BARON RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1048608918</t>
-  </si>
-  <si>
-    <t>WILLIAM ELIECER JARAMILLO RAMIREZ</t>
-  </si>
-  <si>
-    <t>73207439</t>
-  </si>
-  <si>
-    <t>ARMANDO PARDO GONZALEZ</t>
-  </si>
-  <si>
-    <t>1148440010</t>
-  </si>
-  <si>
-    <t>JHON JAIRO GOMEZ BERRIO</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>8834909</t>
-  </si>
-  <si>
-    <t>LUIS ADOLFO VASQUEZ GARCIA</t>
-  </si>
-  <si>
-    <t>1101454290</t>
-  </si>
-  <si>
-    <t>VICTOR LUIS BATISTA ALVAREZ</t>
-  </si>
-  <si>
-    <t>73103185</t>
-  </si>
-  <si>
-    <t>ALBERTO LOPEZ TOVAR</t>
-  </si>
-  <si>
-    <t>73581133</t>
-  </si>
-  <si>
-    <t>MAXIMO CALDERA CORREA</t>
-  </si>
-  <si>
-    <t>1047365504</t>
-  </si>
-  <si>
-    <t>JHON JEREMBER JULIO SANCHEZ</t>
-  </si>
-  <si>
-    <t>1002324227</t>
-  </si>
-  <si>
-    <t>KEIVIN JOSE REYES MARIMON</t>
-  </si>
-  <si>
-    <t>1047441462</t>
-  </si>
-  <si>
-    <t>LUIS ALFONSO ALBIS LUNA</t>
-  </si>
-  <si>
-    <t>1101448419</t>
-  </si>
-  <si>
-    <t>LUIS GUILLERMO CASTRO SANCHEZ</t>
-  </si>
-  <si>
-    <t>9159495</t>
-  </si>
-  <si>
-    <t>OBANIS BANQUEZ MORALES</t>
-  </si>
-  <si>
-    <t>9040795</t>
-  </si>
-  <si>
-    <t>HECTOR VALDEZ JULIO</t>
-  </si>
-  <si>
-    <t>1143380015</t>
-  </si>
-  <si>
-    <t>YOEL DAVID THERAN MARIMON</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02F4378A-1ED2-614F-5F94-B0FA64054FAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158DB90A-C04E-1009-EFB4-84AE93441F49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719A6973-31A1-45DB-B76D-3D7773B512D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2091C85-E552-4E0F-9210-13CA993D3C72}">
   <dimension ref="B2:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1237,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>1659000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
@@ -1266,7 +1266,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>1659000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,16 +1277,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1300,10 +1300,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1323,16 +1323,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1346,16 +1346,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1415,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>29509</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1461,10 +1461,10 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>27</v>
@@ -1490,7 +1490,7 @@
         <v>24</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1530,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1553,16 +1553,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1668,10 +1668,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
@@ -1691,16 +1691,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
@@ -1737,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
@@ -1760,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1783,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
@@ -1806,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1829,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1852,16 +1852,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G45" s="18">
         <v>737717</v>
@@ -1875,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1898,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1921,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1944,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1967,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1990,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2013,16 +2013,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G52" s="18">
         <v>737717</v>
@@ -2036,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2082,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G55" s="18">
         <v>737717</v>
@@ -2105,16 +2105,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G56" s="18">
         <v>737717</v>
@@ -2128,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2151,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2174,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2197,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2220,19 +2220,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F61" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>877803</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2243,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18">
         <v>16722</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2266,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18">
         <v>16722</v>
@@ -2295,10 +2295,10 @@
         <v>53</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F64" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G64" s="18">
         <v>737717</v>
@@ -2312,16 +2312,16 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F65" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G65" s="18">
         <v>737717</v>
@@ -2335,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F66" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G66" s="18">
         <v>737717</v>
@@ -2358,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F67" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G67" s="18">
         <v>737717</v>
@@ -2381,16 +2381,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="F68" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G68" s="18">
         <v>737717</v>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18">
         <v>16722</v>
@@ -2427,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F70" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G70" s="18">
         <v>737717</v>
@@ -2456,7 +2456,7 @@
         <v>57</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F71" s="18">
         <v>16722</v>
@@ -2473,16 +2473,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F72" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G72" s="18">
         <v>737717</v>
@@ -2502,13 +2502,13 @@
         <v>59</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18">
         <v>16722</v>
       </c>
       <c r="G73" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2519,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F74" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G74" s="18">
-        <v>737717</v>
+        <v>828116</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2548,7 +2548,7 @@
         <v>61</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18">
         <v>16722</v>
@@ -2565,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18">
         <v>16722</v>
@@ -2588,16 +2588,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F77" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G77" s="18">
         <v>737717</v>
@@ -2611,16 +2611,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F78" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G78" s="18">
         <v>737717</v>
@@ -2634,16 +2634,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="F79" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G79" s="18">
         <v>737717</v>
@@ -2663,10 +2663,10 @@
         <v>63</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="F80" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G80" s="18">
         <v>737717</v>
@@ -2680,16 +2680,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="F81" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G81" s="18">
         <v>737717</v>
@@ -2709,13 +2709,13 @@
         <v>65</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F82" s="18">
         <v>16722</v>
       </c>
       <c r="G82" s="18">
-        <v>737717</v>
+        <v>908526</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2726,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18">
         <v>16722</v>
@@ -2749,13 +2749,13 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18">
         <v>16722</v>
@@ -2778,10 +2778,10 @@
         <v>69</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F85" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G85" s="18">
         <v>737717</v>
@@ -2795,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18">
         <v>16722</v>
@@ -2824,10 +2824,10 @@
         <v>71</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="F87" s="24">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G87" s="24">
         <v>737717</v>

--- a/Data/EC/NIT-9007424216.xlsx
+++ b/Data/EC/NIT-9007424216.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0AA7CD9-5B6D-49E6-911E-B2499B10FAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8809445B-2AC6-4F08-8BFF-1C74E0466447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{56344CCB-639E-49BB-B2E0-5C29BC7D1A71}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E2FC84F4-EDAA-4C07-8779-1D35D35F6C12}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,6 +65,120 @@
     <t>CC</t>
   </si>
   <si>
+    <t>32938312</t>
+  </si>
+  <si>
+    <t>DINA ESTELLA PASTRANA OQUENDO</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1049533525</t>
+  </si>
+  <si>
+    <t>JEYSON DE ARCO CARVAJALINO</t>
+  </si>
+  <si>
+    <t>9102828</t>
+  </si>
+  <si>
+    <t>JONNY ACEVEDO FUENTES</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>73126026</t>
+  </si>
+  <si>
+    <t>PEDRO MANUEL HERRERA DIAZ</t>
+  </si>
+  <si>
+    <t>1007255219</t>
+  </si>
+  <si>
+    <t>WIL PEREZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>19955354</t>
+  </si>
+  <si>
+    <t>DEYBIS CARO URBINA</t>
+  </si>
+  <si>
+    <t>1047371347</t>
+  </si>
+  <si>
+    <t>JHAN CARLOS BENAVIDES CORTES</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>73539834</t>
+  </si>
+  <si>
+    <t>UMBERTO SANJUAN MERCADO</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>91222203</t>
+  </si>
+  <si>
+    <t>DAVID GONZALEZ MEDRANO</t>
+  </si>
+  <si>
+    <t>73208277</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL BARON RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>11172932</t>
+  </si>
+  <si>
+    <t>LIBARDO JOSE LAGARES ARRIETA</t>
+  </si>
+  <si>
+    <t>1002241077</t>
+  </si>
+  <si>
+    <t>FREDIS JOSE MARTINEZ SALABARRIA</t>
+  </si>
+  <si>
+    <t>73207439</t>
+  </si>
+  <si>
+    <t>ARMANDO PARDO GONZALEZ</t>
+  </si>
+  <si>
+    <t>1127652780</t>
+  </si>
+  <si>
+    <t>ROMER DE JESUS SUAREZ PABA</t>
+  </si>
+  <si>
+    <t>1048608918</t>
+  </si>
+  <si>
+    <t>WILLIAM ELIECER JARAMILLO RAMIREZ</t>
+  </si>
+  <si>
+    <t>1047480992</t>
+  </si>
+  <si>
+    <t>JULIO CESAR ARRIETA ROCHA</t>
+  </si>
+  <si>
     <t>9040795</t>
   </si>
   <si>
@@ -80,21 +194,6 @@
     <t>MAXIMO CALDERA CORREA</t>
   </si>
   <si>
-    <t>73208277</t>
-  </si>
-  <si>
-    <t>JOSE MANUEL BARON RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>11172932</t>
-  </si>
-  <si>
-    <t>LIBARDO JOSE LAGARES ARRIETA</t>
-  </si>
-  <si>
     <t>9159495</t>
   </si>
   <si>
@@ -107,45 +206,6 @@
     <t>ALBERTO LOPEZ TOVAR</t>
   </si>
   <si>
-    <t>9102828</t>
-  </si>
-  <si>
-    <t>JONNY ACEVEDO FUENTES</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>32938312</t>
-  </si>
-  <si>
-    <t>DINA ESTELLA PASTRANA OQUENDO</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>73126026</t>
-  </si>
-  <si>
-    <t>PEDRO MANUEL HERRERA DIAZ</t>
-  </si>
-  <si>
-    <t>1007255219</t>
-  </si>
-  <si>
-    <t>WIL PEREZ RODRIGUEZ</t>
-  </si>
-  <si>
     <t>1101454290</t>
   </si>
   <si>
@@ -158,18 +218,6 @@
     <t>KEIVIN JOSE REYES MARIMON</t>
   </si>
   <si>
-    <t>19955354</t>
-  </si>
-  <si>
-    <t>DEYBIS CARO URBINA</t>
-  </si>
-  <si>
-    <t>91222203</t>
-  </si>
-  <si>
-    <t>DAVID GONZALEZ MEDRANO</t>
-  </si>
-  <si>
     <t>1143380015</t>
   </si>
   <si>
@@ -182,54 +230,18 @@
     <t>LUIS GUILLERMO CASTRO SANCHEZ</t>
   </si>
   <si>
-    <t>73539834</t>
-  </si>
-  <si>
-    <t>UMBERTO SANJUAN MERCADO</t>
-  </si>
-  <si>
     <t>8834909</t>
   </si>
   <si>
     <t>LUIS ADOLFO VASQUEZ GARCIA</t>
   </si>
   <si>
-    <t>1049533525</t>
-  </si>
-  <si>
-    <t>JEYSON DE ARCO CARVAJALINO</t>
-  </si>
-  <si>
-    <t>1002241077</t>
-  </si>
-  <si>
-    <t>FREDIS JOSE MARTINEZ SALABARRIA</t>
-  </si>
-  <si>
-    <t>73207439</t>
-  </si>
-  <si>
-    <t>ARMANDO PARDO GONZALEZ</t>
-  </si>
-  <si>
-    <t>1127652780</t>
-  </si>
-  <si>
-    <t>ROMER DE JESUS SUAREZ PABA</t>
-  </si>
-  <si>
     <t>1047441462</t>
   </si>
   <si>
     <t>LUIS ALFONSO ALBIS LUNA</t>
   </si>
   <si>
-    <t>1047371347</t>
-  </si>
-  <si>
-    <t>JHAN CARLOS BENAVIDES CORTES</t>
-  </si>
-  <si>
     <t>1047365504</t>
   </si>
   <si>
@@ -240,18 +252,6 @@
   </si>
   <si>
     <t>JHON JAIRO GOMEZ BERRIO</t>
-  </si>
-  <si>
-    <t>1048608918</t>
-  </si>
-  <si>
-    <t>WILLIAM ELIECER JARAMILLO RAMIREZ</t>
-  </si>
-  <si>
-    <t>1047480992</t>
-  </si>
-  <si>
-    <t>JULIO CESAR ARRIETA ROCHA</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -350,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -363,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -565,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -665,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{158DB90A-C04E-1009-EFB4-84AE93441F49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4ACD604-98BD-9CF0-BE2D-9BEEC676367F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,7 +1016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2091C85-E552-4E0F-9210-13CA993D3C72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92E5EB7-ECAB-47CA-81DC-7E0919940BCD}">
   <dimension ref="B2:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1194,7 +1194,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
         <v>737717</v>
@@ -1217,7 +1217,7 @@
         <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
         <v>737717</v>
@@ -1237,13 +1237,13 @@
         <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F18" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>1659000</v>
+        <v>737717</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1254,10 +1254,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>16</v>
@@ -1266,7 +1266,7 @@
         <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>1659000</v>
+        <v>737717</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1283,10 +1283,10 @@
         <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
         <v>737717</v>
@@ -1300,10 +1300,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E21" s="16" t="s">
         <v>16</v>
@@ -1323,16 +1323,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
         <v>737717</v>
@@ -1346,16 +1346,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
         <v>737717</v>
@@ -1369,16 +1369,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F24" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
         <v>737717</v>
@@ -1392,13 +1392,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="F25" s="18">
         <v>29509</v>
@@ -1415,10 +1415,10 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>25</v>
@@ -1438,13 +1438,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>29509</v>
@@ -1461,13 +1461,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F28" s="18">
         <v>29509</v>
@@ -1484,13 +1484,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>29509</v>
@@ -1507,13 +1507,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>29509</v>
@@ -1530,13 +1530,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F31" s="18">
         <v>29509</v>
@@ -1553,16 +1553,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G32" s="18">
         <v>737717</v>
@@ -1576,13 +1576,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>29509</v>
@@ -1599,13 +1599,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F34" s="18">
         <v>29509</v>
@@ -1622,13 +1622,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F35" s="18">
         <v>29509</v>
@@ -1645,13 +1645,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F36" s="18">
         <v>29509</v>
@@ -1668,10 +1668,10 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>28</v>
@@ -1691,16 +1691,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F38" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G38" s="18">
         <v>737717</v>
@@ -1714,13 +1714,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F39" s="18">
         <v>29509</v>
@@ -1737,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>29509</v>
@@ -1760,13 +1760,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
         <v>29509</v>
@@ -1783,13 +1783,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
         <v>29509</v>
@@ -1806,13 +1806,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F43" s="18">
         <v>29509</v>
@@ -1829,16 +1829,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F44" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G44" s="18">
         <v>737717</v>
@@ -1852,16 +1852,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G45" s="18">
         <v>737717</v>
@@ -1875,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F46" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G46" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1898,19 +1898,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F47" s="18">
         <v>29509</v>
       </c>
       <c r="G47" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1921,19 +1921,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F48" s="18">
         <v>29509</v>
       </c>
       <c r="G48" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1944,19 +1944,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F49" s="18">
         <v>29509</v>
       </c>
       <c r="G49" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1967,19 +1967,19 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="F50" s="18">
         <v>29509</v>
       </c>
       <c r="G50" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1990,19 +1990,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>29509</v>
       </c>
       <c r="G51" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2013,16 +2013,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F52" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G52" s="18">
         <v>737717</v>
@@ -2036,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F53" s="18">
         <v>29509</v>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F54" s="18">
         <v>29509</v>
@@ -2082,16 +2082,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F55" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G55" s="18">
         <v>737717</v>
@@ -2105,16 +2105,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F56" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G56" s="18">
         <v>737717</v>
@@ -2128,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="F57" s="18">
-        <v>16722</v>
+        <v>29509</v>
       </c>
       <c r="G57" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2151,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F58" s="18">
         <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2174,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="F59" s="18">
         <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2197,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F60" s="18">
         <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2220,19 +2220,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D61" s="17" t="s">
+      <c r="E61" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E61" s="16" t="s">
-        <v>27</v>
-      </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G61" s="18">
-        <v>877803</v>
+        <v>737717</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2249,13 +2249,13 @@
         <v>51</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F62" s="18">
         <v>16722</v>
       </c>
       <c r="G62" s="18">
-        <v>781242</v>
+        <v>737717</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2266,13 +2266,13 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F63" s="18">
         <v>16722</v>
@@ -2289,16 +2289,16 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F64" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G64" s="18">
         <v>737717</v>
@@ -2318,10 +2318,10 @@
         <v>53</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F65" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G65" s="18">
         <v>737717</v>
@@ -2335,16 +2335,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F66" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G66" s="18">
         <v>737717</v>
@@ -2358,16 +2358,16 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F67" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G67" s="18">
         <v>737717</v>
@@ -2381,16 +2381,16 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F68" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G68" s="18">
         <v>737717</v>
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F69" s="18">
         <v>16722</v>
@@ -2427,16 +2427,16 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F70" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G70" s="18">
         <v>737717</v>
@@ -2450,13 +2450,13 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F71" s="18">
         <v>16722</v>
@@ -2473,16 +2473,16 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F72" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G72" s="18">
         <v>737717</v>
@@ -2496,19 +2496,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F73" s="18">
         <v>16722</v>
       </c>
       <c r="G73" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2519,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F74" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G74" s="18">
-        <v>828116</v>
+        <v>737717</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2542,13 +2542,13 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F75" s="18">
         <v>16722</v>
@@ -2565,13 +2565,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F76" s="18">
         <v>16722</v>
@@ -2588,16 +2588,16 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F77" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G77" s="18">
         <v>737717</v>
@@ -2611,16 +2611,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F78" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G78" s="18">
         <v>737717</v>
@@ -2634,16 +2634,16 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F79" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G79" s="18">
         <v>737717</v>
@@ -2657,16 +2657,16 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="F80" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G80" s="18">
         <v>737717</v>
@@ -2680,16 +2680,16 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="F81" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G81" s="18">
         <v>737717</v>
@@ -2703,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F82" s="18">
         <v>16722</v>
       </c>
       <c r="G82" s="18">
-        <v>908526</v>
+        <v>737717</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2726,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F83" s="18">
         <v>16722</v>
@@ -2755,7 +2755,7 @@
         <v>69</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F84" s="18">
         <v>16722</v>
@@ -2772,16 +2772,16 @@
         <v>8</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D85" s="17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E85" s="16" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F85" s="18">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G85" s="18">
         <v>737717</v>
@@ -2795,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="D86" s="17" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="E86" s="16" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F86" s="18">
         <v>16722</v>
@@ -2818,16 +2818,16 @@
         <v>8</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="F87" s="24">
-        <v>29509</v>
+        <v>16722</v>
       </c>
       <c r="G87" s="24">
         <v>737717</v>
